--- a/GA/src/dem.xlsx
+++ b/GA/src/dem.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88BD4D-CC8B-3E4E-975C-8A081EB16B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81102F41-AFB5-DA48-AEA7-1BE08971ECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27200" yWindow="6120" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B14F0146-1A75-8946-9252-B1C5A13E25EF}"/>
+    <workbookView xWindow="72800" yWindow="8100" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B14F0146-1A75-8946-9252-B1C5A13E25EF}"/>
   </bookViews>
   <sheets>
     <sheet name="retailerA" sheetId="1" r:id="rId1"/>
     <sheet name="retailerB" sheetId="2" r:id="rId2"/>
+    <sheet name="retailerC" sheetId="3" r:id="rId3"/>
+    <sheet name="retailerD" sheetId="4" r:id="rId4"/>
+    <sheet name="retailerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>day1</t>
   </si>
@@ -47,15 +50,25 @@
   <si>
     <t>productB</t>
   </si>
+  <si>
+    <t>productC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BAF4DD-264B-D94E-8922-1FF1C5D8CBD8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,6 +449,17 @@
         <v>450</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>320</v>
+      </c>
+      <c r="C4" s="1">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -442,10 +467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13A74BE-4600-1E40-BD57-E5563FEACA5D}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +505,185 @@
         <v>550</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>520</v>
+      </c>
+      <c r="C4">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1161A4DD-9DED-2A4F-867C-AA8C63B8BFF7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>480</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>420</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61819624-0B45-2B42-B662-31DB4D90501A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>230</v>
+      </c>
+      <c r="C2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FF63A6-09B2-004F-AC47-4EDB79537842}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>520</v>
+      </c>
+      <c r="C2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>220</v>
+      </c>
+      <c r="C4">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
